--- a/xlsx/连线_intext.xlsx
+++ b/xlsx/连线_intext.xlsx
@@ -29,7 +29,7 @@
     <t>企业</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_连线</t>
+    <t>政策_政策_维基百科_连线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%80%E6%9C%AF</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%B4%BB%E5%9E%8B%E6%85%8B</t>
   </si>
   <si>
-    <t>生活型態</t>
+    <t>生活型态</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E6%B3%B0%E7%BA%B3%E4%BB%95</t>
@@ -65,13 +65,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1</t>
   </si>
   <si>
-    <t>舊金山</t>
+    <t>旧金山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AA%92%E4%BD%93</t>
